--- a/jpcore-r4/feature/swg3-enconter-0714修正/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
+++ b/jpcore-r4/feature/swg3-enconter-0714修正/ValueSet-jp-allergyintolerance-codes-food-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T02:26:49+00:00</t>
+    <t>2022-07-14T02:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
